--- a/biology/Botanique/George_Albert_Boulenger/George_Albert_Boulenger.xlsx
+++ b/biology/Botanique/George_Albert_Boulenger/George_Albert_Boulenger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Albert Boulenger est un zoologiste belge naturalisé britannique, né le 19 octobre 1858 à Bruxelles et mort le 23 novembre 1937 à Saint-Malo.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Boulenger est le fils unique de Gustave Boulenger, notaire public belge, et de son épouse, née Juliette Piérart, originaire de Valenciennes. Il est diplômé d'histoire naturelle en 1876 à l'université libre de Bruxelles et travaille au muséum d'histoire naturelle de cette même ville où il étudie particulièrement les amphibiens, les reptiles et les poissons. Il se rend fréquemment au Muséum national d'histoire naturelle de Paris et au British Museum de Londres.
 En 1880, il est invité à venir travailler au musée d'histoire naturelle de Londres par Albert Charles Lewis Günther (1830-1914) où il est chargé de réaliser le catalogue des amphibiens qui y sont conservés. Il est bientôt naturalisé britannique. En 1882, il devient assistant-naturaliste de première classe au département de zoologie, poste qu'il conserve jusqu'à son départ à la retraite en 1920.
@@ -552,7 +566,9 @@
           <t>Les espèces dédiées à G. A. Boulenger</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Atractaspis boulengeri
 Boulengerochromis microlepis
@@ -598,7 +614,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Catalogue of the Batrachia Salientia s. Ecaudata in the Collection of the British Museum. (1882).
 Catalogue of the Lizards in the British Museum (Natural History). Second Edition. (1885, 1885, 1887). 3 vol.
